--- a/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
+++ b/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Study\Stduy_language_Python\GameDataMaker\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Study\Stduy_language_CPlusPlus\SuperStar\Game\Resource\Orginal\Paramater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA1B5C-B0B2-499C-B83E-ED4564B79D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C28F3-5536-4C24-AB00-F15630BF165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
   </bookViews>
   <sheets>
     <sheet name="@新しいシートを作る時はこれをコピーしてください" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>d</t>
     <phoneticPr fontId="1"/>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>player_default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InvincibleTimeSec</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -912,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D6449-A0AE-4D1E-9B19-FF9D8D4FBABF}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -924,13 +932,13 @@
     <col min="2" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -940,7 +948,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -948,7 +956,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -958,19 +966,19 @@
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -986,8 +994,11 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1011,8 +1022,11 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1020,19 +1034,22 @@
         <v>27</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
+++ b/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Study\Stduy_language_CPlusPlus\SuperStar\Game\Resource\Orginal\Paramater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C28F3-5536-4C24-AB00-F15630BF165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD8CED-FCCD-47E1-B697-27417A2FD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
   </bookViews>
   <sheets>
     <sheet name="@新しいシートを作る時はこれをコピーしてください" sheetId="2" r:id="rId1"/>
     <sheet name="Player" sheetId="3" r:id="rId2"/>
     <sheet name="Enemy" sheetId="1" r:id="rId3"/>
+    <sheet name="Stage_Timeline_01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>d</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +183,42 @@
   <si>
     <t>InvincibleTimeSec</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1のタイムライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d/r</t>
+  </si>
+  <si>
+    <t>peroid_sec</t>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemy_id</t>
+  </si>
+  <si>
+    <t>zako</t>
+  </si>
+  <si>
+    <t>pos_x</t>
+  </si>
+  <si>
+    <t>pos_y</t>
+  </si>
+  <si>
+    <t>move_dir_x</t>
+  </si>
+  <si>
+    <t>move_dir_y</t>
   </si>
 </sst>
 </file>
@@ -740,7 +777,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -923,7 +960,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -961,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
@@ -1037,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>1.5</v>
@@ -1078,7 +1115,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1254,4 +1291,235 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70AAE43-6802-41FB-9D79-75D579C2BF36}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>800</v>
+      </c>
+      <c r="H11" s="2">
+        <v>300</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>400</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
+++ b/SuperStar/Game/Resource/Orginal/Paramater/Game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Study\Stduy_language_CPlusPlus\SuperStar\Game\Resource\Orginal\Paramater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD8CED-FCCD-47E1-B697-27417A2FD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026B43C-C3F0-4A84-8F25-49BF74DC8DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{5EA0DDF3-9E3E-4BD4-AAC2-03339377B57F}"/>
   </bookViews>
   <sheets>
     <sheet name="@新しいシートを作る時はこれをコピーしてください" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>d</t>
     <phoneticPr fontId="1"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>InvincibleTimeSec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーデータ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,29 +192,96 @@
     <t>d/r</t>
   </si>
   <si>
+    <t>str</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pos_x</t>
+  </si>
+  <si>
+    <t>pos_y</t>
+  </si>
+  <si>
+    <t>move_dir_x</t>
+  </si>
+  <si>
+    <t>move_dir_y</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>player_default</t>
+  </si>
+  <si>
+    <t>自機登場！</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>peroid_sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put_player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put_zako</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>str</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>enemy_id</t>
+    <t>player_default</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>zako</t>
-  </si>
-  <si>
-    <t>pos_x</t>
-  </si>
-  <si>
-    <t>pos_y</t>
-  </si>
-  <si>
-    <t>move_dir_x</t>
-  </si>
-  <si>
-    <t>move_dir_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move_speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>invincible_time_sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parameter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -959,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D6449-A0AE-4D1E-9B19-FF9D8D4FBABF}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -998,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
@@ -1057,10 +1120,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1112,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8A6E09-08BF-4428-9F11-6D2D49567D57}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1124,13 +1187,13 @@
     <col min="2" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -1140,7 +1203,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -1148,7 +1211,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1158,19 +1221,19 @@
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1186,8 +1249,17 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1209,10 +1281,19 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,13 +1304,22 @@
         <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="1">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1240,13 +1330,22 @@
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="2">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1257,18 +1356,27 @@
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="1">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1295,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70AAE43-6802-41FB-9D79-75D579C2BF36}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1307,13 +1415,13 @@
     <col min="2" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="8" t="s">
         <v>8</v>
@@ -1323,7 +1431,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -1331,29 +1439,29 @@
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -1381,8 +1489,11 @@
       <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +1501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1398,68 +1509,80 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H11" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2">
         <v>-1</v>
@@ -1467,25 +1590,28 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H12" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I12" s="1">
         <v>-1</v>
@@ -1493,13 +1619,45 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2">
+        <v>400</v>
+      </c>
+      <c r="H13" s="2">
+        <v>300</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1514,6 +1672,7 @@
     <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
